--- a/z/요양사명단 - 복사본.xlsx
+++ b/z/요양사명단 - 복사본.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\학원코딩\파이썬\코드\sbs_python\z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0EC9E8-A708-4E50-926D-423FCE545E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82B9B134-4270-422D-BA57-29049BC64341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{EE311504-6271-4185-AF25-1F47A1731E16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE311504-6271-4185-AF25-1F47A1731E16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -857,459 +858,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D467759D-09F7-443B-88E5-121D4BD51A27}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="3" max="3" width="3.875" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="3.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
         <v>80</v>
       </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>36</v>
       </c>
     </row>
